--- a/biology/Zoologie/Colombier_du_Grilhon/Colombier_du_Grilhon.xlsx
+++ b/biology/Zoologie/Colombier_du_Grilhon/Colombier_du_Grilhon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le colombier du Grilhon est un colombier située à Carbonne, dans le département de la Haute-Garonne en France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le colombier du Grilhon est un colombier située à Carbonne, dans le département de la Haute-Garonne en France.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pigeonnier se situe au centre de la cour de la maison de retraite de Carbonne 31 rue Étienne- Prosjean.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le colombier est un pigeonnier-tour de type circulaire, constitué de briques roses typiques du pays toulousain de style Renaissance, surmonté d'une coupole de style mauresque[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le colombier est un pigeonnier-tour de type circulaire, constitué de briques roses typiques du pays toulousain de style Renaissance, surmonté d'une coupole de style mauresque.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pigeonnier contrit entre fin du XVIe siècle début du XVIIe siècle.
-Le colombier du Grilhon est inscrit au titre des monuments historiques par arrêté du 21 novembre 2009[1].
+Le colombier du Grilhon est inscrit au titre des monuments historiques par arrêté du 21 novembre 2009.
 </t>
         </is>
       </c>
